--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T13:43:05+00:00</t>
+    <t>2025-04-30T14:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T14:55:26+00:00</t>
+    <t>2025-04-30T15:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:08:51+00:00</t>
+    <t>2025-04-30T15:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:42:49+00:00</t>
+    <t>2025-04-30T15:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T10:35:31+00:00</t>
+    <t>2025-05-01T16:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Model logique d'un eventCode</t>
+    <t xml:space="preserve">Model logique d'un eventCode.
+Un EventCode peut contenir le code représentant : 
+-  un évènement documenté (acte, traitement, diagnostic, etc…),  
+-  une modalité d’acquisition, 
+-  une région anatomique. </t>
   </si>
   <si>
     <t>Purpose</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T16:30:13+00:00</t>
+    <t>2025-05-02T13:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Model logique d'un eventCode.
+    <t xml:space="preserve">Modèle logique d'un eventCode.
 Un EventCode peut contenir le code représentant : 
 -  un évènement documenté (acte, traitement, diagnostic, etc…),  
 -  une modalité d’acquisition, 

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-EventCode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
